--- a/textbook/public/writeFormula.xlsx
+++ b/textbook/public/writeFormula.xlsx
@@ -4,18 +4,15 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="a" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48,15 +45,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -357,23 +354,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2">
       <c r="A2" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3">
       <c r="A3">
         <f>SUM(A1:A2)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3">
+        <f>SUM(B1:B2)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>